--- a/Parts (toOrder).xlsx
+++ b/Parts (toOrder).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\012 - SK Macro V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Documents\Github\SK-Macro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462F9D72-CEEF-41C5-B68E-014FE5E5D659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0DE749-5E07-421E-93C9-6250E49B73B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{5DB07B9E-1760-4153-ADFE-E97DF2BABC4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5DB07B9E-1760-4153-ADFE-E97DF2BABC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Part</t>
   </si>
@@ -119,12 +119,6 @@
     <t>Switch</t>
   </si>
   <si>
-    <t>Gateron Low Profile 2.0</t>
-  </si>
-  <si>
-    <t>mx hot swap sockets</t>
-  </si>
-  <si>
     <t>Switch socket</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>PCB</t>
   </si>
   <si>
-    <t>Battery</t>
-  </si>
-  <si>
     <t>Keycaps</t>
   </si>
   <si>
@@ -146,20 +137,41 @@
     <t>I used gateron switches which have the MX footprint. If you shose CHOCK style switches you need to buy a different socket</t>
   </si>
   <si>
-    <t>If you buy through the given links I will get a small comission. Thanks for the supporting me if you do that :)</t>
-  </si>
-  <si>
-    <t>Getting the keycaps I want has been dificult. So instead I 3d printed them.</t>
-  </si>
-  <si>
     <t>Seeed Studio XIAO RP2040</t>
+  </si>
+  <si>
+    <t>Choc hot swap sockets</t>
+  </si>
+  <si>
+    <t>Choc Switches</t>
+  </si>
+  <si>
+    <t>https://chosfox.com/collections/kailh-low-profile-switch-pg1350/products/kailh-chocs</t>
+  </si>
+  <si>
+    <t>https://chosfox.com/collections/sockets-mouse-switches/products/kailh-choc-switch-1350-hot-swap-sockets</t>
+  </si>
+  <si>
+    <t>https://chosfox.com/products/chocfox-cfx-choc-keycaps?variant=42165428322498</t>
+  </si>
+  <si>
+    <t>IO Expander</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/I-O-Expanders_Microchip-Tech-MCP23017-E-SS_C506653.html</t>
+  </si>
+  <si>
+    <t>I left out all the components used for battery managmend since I didn't get bluetooth communication to work. If you for some reason want to solder these components take a look at the Fusion file and search for the components on LCSC :)</t>
+  </si>
+  <si>
+    <t>https://www.seeedstudio.com/XIAO-RP2040-v1-0-p-5026.html?queryID=30d13a4eecbc29ee99ded59cf826651a&amp;objectID=5026&amp;indexName=bazaar_retailer_products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +184,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,13 +211,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,23 +595,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0102E953-81D8-4FB4-BAE4-B6E0416ABA5E}">
-  <dimension ref="B3:J18"/>
+  <dimension ref="B3:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="100.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -596,7 +619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B4" ca="1">G8:G18</f>
         <v>#VALUE!</v>
@@ -606,7 +629,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -632,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -640,33 +663,36 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>16</v>
       </c>
       <c r="F8">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>16</v>
@@ -675,24 +701,27 @@
         <v>20</v>
       </c>
       <c r="G9">
-        <v>8.6999999999999993</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -706,13 +735,16 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -726,76 +758,63 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
         <v>16</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.6</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J8" r:id="rId1" xr:uid="{C3F6BF07-B9AB-4658-94C4-4E29D03566C1}"/>
+    <hyperlink ref="J9" r:id="rId2" xr:uid="{4CF96D64-28B7-4008-BD9E-04620493329D}"/>
+    <hyperlink ref="J12" r:id="rId3" xr:uid="{73CC0693-3B00-4D7F-AAB0-E33EB3395143}"/>
+    <hyperlink ref="J13" r:id="rId4" xr:uid="{44DA41D4-19F9-49E5-9826-6F2794D02A77}"/>
+    <hyperlink ref="J10" r:id="rId5" xr:uid="{554FC295-6900-4D35-BECC-DC506ED1A5B3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Parts (toOrder).xlsx
+++ b/Parts (toOrder).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Documents\Github\SK-Macro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0DE749-5E07-421E-93C9-6250E49B73B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FD3674-2081-4FB1-BF83-00525846114C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5DB07B9E-1760-4153-ADFE-E97DF2BABC4F}"/>
+    <workbookView xWindow="57480" yWindow="4470" windowWidth="29040" windowHeight="16440" xr2:uid="{5DB07B9E-1760-4153-ADFE-E97DF2BABC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Part</t>
   </si>
@@ -165,6 +165,21 @@
   </si>
   <si>
     <t>https://www.seeedstudio.com/XIAO-RP2040-v1-0-p-5026.html?queryID=30d13a4eecbc29ee99ded59cf826651a&amp;objectID=5026&amp;indexName=bazaar_retailer_products</t>
+  </si>
+  <si>
+    <t>https://www.pcbway.com/project/shareproject/DIY_Macropad_ab1137f4.html</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>0603 1k</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Chip-span-style-background-color-ff0-Resistor-span-Surface-Mount_TyoHM-RMC06031K5-N_C269685.html</t>
+  </si>
+  <si>
+    <t>Total (€)</t>
   </si>
 </sst>
 </file>
@@ -595,23 +610,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0102E953-81D8-4FB4-BAE4-B6E0416ABA5E}">
-  <dimension ref="B3:J15"/>
+  <dimension ref="B3:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="109.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="109.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -619,7 +634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B4" ca="1">G8:G18</f>
         <v>#VALUE!</v>
@@ -629,7 +644,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -655,7 +670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0</v>
       </c>
@@ -674,9 +689,6 @@
       <c r="G8">
         <v>10</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8" t="s">
         <v>15</v>
       </c>
@@ -684,7 +696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
@@ -703,9 +715,6 @@
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9" t="s">
         <v>16</v>
       </c>
@@ -713,7 +722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
@@ -732,14 +741,11 @@
       <c r="G10">
         <v>5.4</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>3</v>
       </c>
@@ -755,11 +761,11 @@
       <c r="G11">
         <v>5</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>4</v>
       </c>
@@ -775,14 +781,11 @@
       <c r="G12">
         <v>7</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="J12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>5</v>
       </c>
@@ -795,16 +798,47 @@
       <c r="G13">
         <v>1.6</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="J13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I15" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>0.02</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <f>G8+G9+G11+G10+G12+G13+G14</f>
+        <v>32.020000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -814,6 +848,8 @@
     <hyperlink ref="J12" r:id="rId3" xr:uid="{73CC0693-3B00-4D7F-AAB0-E33EB3395143}"/>
     <hyperlink ref="J13" r:id="rId4" xr:uid="{44DA41D4-19F9-49E5-9826-6F2794D02A77}"/>
     <hyperlink ref="J10" r:id="rId5" xr:uid="{554FC295-6900-4D35-BECC-DC506ED1A5B3}"/>
+    <hyperlink ref="J11" r:id="rId6" xr:uid="{6AD91615-F137-49CC-91F1-A781E610AC07}"/>
+    <hyperlink ref="J14" r:id="rId7" xr:uid="{B9E21A80-C672-4F54-9BE1-728DE99FE84C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
